--- a/datasets/xlsx/CSPreMatchStatistics.xlsx
+++ b/datasets/xlsx/CSPreMatchStatistics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avery\OneDrive\Desktop\CS2 Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DD4014-05D3-4075-8263-FAD02FED20FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D66304-57CF-4C90-A521-89C09E95172D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="7965" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,11 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T88"/>
+  <dimension ref="A1:T102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U100" sqref="U100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5479,6 +5479,844 @@
         <v>-3</v>
       </c>
     </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>844</v>
+      </c>
+      <c r="B89">
+        <v>11111</v>
+      </c>
+      <c r="C89">
+        <v>5</v>
+      </c>
+      <c r="D89">
+        <v>19597</v>
+      </c>
+      <c r="E89">
+        <v>19159</v>
+      </c>
+      <c r="F89">
+        <v>19000</v>
+      </c>
+      <c r="G89">
+        <v>18988</v>
+      </c>
+      <c r="H89">
+        <v>18315</v>
+      </c>
+      <c r="J89">
+        <v>14130</v>
+      </c>
+      <c r="K89">
+        <v>20190</v>
+      </c>
+      <c r="L89">
+        <v>15334</v>
+      </c>
+      <c r="N89">
+        <v>3</v>
+      </c>
+      <c r="O89">
+        <v>-2</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>9</v>
+      </c>
+      <c r="R89">
+        <v>-8</v>
+      </c>
+      <c r="S89">
+        <v>4</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>845</v>
+      </c>
+      <c r="B90">
+        <v>11111</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>18606</v>
+      </c>
+      <c r="E90">
+        <v>17399</v>
+      </c>
+      <c r="F90">
+        <v>17238</v>
+      </c>
+      <c r="G90">
+        <v>17221</v>
+      </c>
+      <c r="H90">
+        <v>16136</v>
+      </c>
+      <c r="I90">
+        <v>16991</v>
+      </c>
+      <c r="J90">
+        <v>15165</v>
+      </c>
+      <c r="K90">
+        <v>15186</v>
+      </c>
+      <c r="L90">
+        <v>14348</v>
+      </c>
+      <c r="M90">
+        <v>21287</v>
+      </c>
+      <c r="N90">
+        <v>-8</v>
+      </c>
+      <c r="O90">
+        <v>-14</v>
+      </c>
+      <c r="P90">
+        <v>4</v>
+      </c>
+      <c r="Q90">
+        <v>7</v>
+      </c>
+      <c r="R90">
+        <v>4</v>
+      </c>
+      <c r="S90">
+        <v>3</v>
+      </c>
+      <c r="T90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>846</v>
+      </c>
+      <c r="B91">
+        <v>2111</v>
+      </c>
+      <c r="C91">
+        <v>2111</v>
+      </c>
+      <c r="D91">
+        <v>18185</v>
+      </c>
+      <c r="E91">
+        <v>17604</v>
+      </c>
+      <c r="F91">
+        <v>17702</v>
+      </c>
+      <c r="G91">
+        <v>16917</v>
+      </c>
+      <c r="I91">
+        <v>18075</v>
+      </c>
+      <c r="J91">
+        <v>17209</v>
+      </c>
+      <c r="K91">
+        <v>17555</v>
+      </c>
+      <c r="L91">
+        <v>15969</v>
+      </c>
+      <c r="M91">
+        <v>17185</v>
+      </c>
+      <c r="N91">
+        <v>-2</v>
+      </c>
+      <c r="O91">
+        <v>-8</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>-13</v>
+      </c>
+      <c r="R91">
+        <v>3</v>
+      </c>
+      <c r="S91">
+        <v>4</v>
+      </c>
+      <c r="T91">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>848</v>
+      </c>
+      <c r="B92">
+        <v>311</v>
+      </c>
+      <c r="C92">
+        <v>41</v>
+      </c>
+      <c r="D92">
+        <v>17506</v>
+      </c>
+      <c r="E92">
+        <v>16971</v>
+      </c>
+      <c r="F92">
+        <v>19330</v>
+      </c>
+      <c r="G92">
+        <v>12698</v>
+      </c>
+      <c r="H92">
+        <v>16483</v>
+      </c>
+      <c r="I92">
+        <v>17596</v>
+      </c>
+      <c r="J92">
+        <v>20081</v>
+      </c>
+      <c r="K92">
+        <v>16010</v>
+      </c>
+      <c r="L92">
+        <v>12011</v>
+      </c>
+      <c r="M92">
+        <v>13808</v>
+      </c>
+      <c r="N92">
+        <v>-4</v>
+      </c>
+      <c r="O92">
+        <v>4</v>
+      </c>
+      <c r="P92">
+        <v>4</v>
+      </c>
+      <c r="Q92">
+        <v>-11</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>2</v>
+      </c>
+      <c r="T92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>850</v>
+      </c>
+      <c r="B93">
+        <v>221</v>
+      </c>
+      <c r="C93">
+        <v>221</v>
+      </c>
+      <c r="D93">
+        <v>17423</v>
+      </c>
+      <c r="E93">
+        <v>18483</v>
+      </c>
+      <c r="F93">
+        <v>15141</v>
+      </c>
+      <c r="G93">
+        <v>19442</v>
+      </c>
+      <c r="H93">
+        <v>12517</v>
+      </c>
+      <c r="I93">
+        <v>15109</v>
+      </c>
+      <c r="J93">
+        <v>19041</v>
+      </c>
+      <c r="K93">
+        <v>17088</v>
+      </c>
+      <c r="L93">
+        <v>17027</v>
+      </c>
+      <c r="M93">
+        <v>15865</v>
+      </c>
+      <c r="N93">
+        <v>-6</v>
+      </c>
+      <c r="O93">
+        <v>2</v>
+      </c>
+      <c r="P93">
+        <v>-2</v>
+      </c>
+      <c r="Q93">
+        <v>-1</v>
+      </c>
+      <c r="R93">
+        <v>-2</v>
+      </c>
+      <c r="S93">
+        <v>-1</v>
+      </c>
+      <c r="T93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>851</v>
+      </c>
+      <c r="B94">
+        <v>11111</v>
+      </c>
+      <c r="C94">
+        <v>11111</v>
+      </c>
+      <c r="D94">
+        <v>17834</v>
+      </c>
+      <c r="E94">
+        <v>17667</v>
+      </c>
+      <c r="F94">
+        <v>17230</v>
+      </c>
+      <c r="G94">
+        <v>17341</v>
+      </c>
+      <c r="H94">
+        <v>17052</v>
+      </c>
+      <c r="I94">
+        <v>17238</v>
+      </c>
+      <c r="J94">
+        <v>17575</v>
+      </c>
+      <c r="K94">
+        <v>17398</v>
+      </c>
+      <c r="L94">
+        <v>17213</v>
+      </c>
+      <c r="N94">
+        <v>5</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>-4</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>-4</v>
+      </c>
+      <c r="S94">
+        <v>3</v>
+      </c>
+      <c r="T94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>853</v>
+      </c>
+      <c r="B95">
+        <v>311</v>
+      </c>
+      <c r="C95">
+        <v>311</v>
+      </c>
+      <c r="D95">
+        <v>19815</v>
+      </c>
+      <c r="E95">
+        <v>15120</v>
+      </c>
+      <c r="F95">
+        <v>14378</v>
+      </c>
+      <c r="G95">
+        <v>17076</v>
+      </c>
+      <c r="H95">
+        <v>16956</v>
+      </c>
+      <c r="I95">
+        <v>17829</v>
+      </c>
+      <c r="J95">
+        <v>15395</v>
+      </c>
+      <c r="K95">
+        <v>15854</v>
+      </c>
+      <c r="L95">
+        <v>18498</v>
+      </c>
+      <c r="M95">
+        <v>16757</v>
+      </c>
+      <c r="N95">
+        <v>-14</v>
+      </c>
+      <c r="O95">
+        <v>14</v>
+      </c>
+      <c r="P95">
+        <v>3</v>
+      </c>
+      <c r="Q95">
+        <v>3</v>
+      </c>
+      <c r="R95">
+        <v>-8</v>
+      </c>
+      <c r="S95">
+        <v>4</v>
+      </c>
+      <c r="T95">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>854</v>
+      </c>
+      <c r="B96">
+        <v>2111</v>
+      </c>
+      <c r="C96">
+        <v>311</v>
+      </c>
+      <c r="D96">
+        <v>17431</v>
+      </c>
+      <c r="E96">
+        <v>16926</v>
+      </c>
+      <c r="F96">
+        <v>16891</v>
+      </c>
+      <c r="G96">
+        <v>19570</v>
+      </c>
+      <c r="I96">
+        <v>17335</v>
+      </c>
+      <c r="J96">
+        <v>20000</v>
+      </c>
+      <c r="K96">
+        <v>18526</v>
+      </c>
+      <c r="L96">
+        <v>12585</v>
+      </c>
+      <c r="M96">
+        <v>15304</v>
+      </c>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="O96">
+        <v>2</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>-7</v>
+      </c>
+      <c r="R96">
+        <v>-2</v>
+      </c>
+      <c r="S96">
+        <v>7</v>
+      </c>
+      <c r="T96">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>855</v>
+      </c>
+      <c r="B97">
+        <v>311</v>
+      </c>
+      <c r="C97">
+        <v>41</v>
+      </c>
+      <c r="D97">
+        <v>2799</v>
+      </c>
+      <c r="E97">
+        <v>2041</v>
+      </c>
+      <c r="F97">
+        <v>8273</v>
+      </c>
+      <c r="G97">
+        <v>4032</v>
+      </c>
+      <c r="H97">
+        <v>3373</v>
+      </c>
+      <c r="J97">
+        <v>3343</v>
+      </c>
+      <c r="L97">
+        <v>6509</v>
+      </c>
+      <c r="M97">
+        <v>1160</v>
+      </c>
+      <c r="N97">
+        <v>6</v>
+      </c>
+      <c r="O97">
+        <v>2</v>
+      </c>
+      <c r="P97">
+        <v>3</v>
+      </c>
+      <c r="Q97">
+        <v>4</v>
+      </c>
+      <c r="R97">
+        <v>3</v>
+      </c>
+      <c r="S97">
+        <v>-2</v>
+      </c>
+      <c r="T97">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>856</v>
+      </c>
+      <c r="B98">
+        <v>311</v>
+      </c>
+      <c r="C98">
+        <v>2111</v>
+      </c>
+      <c r="D98">
+        <v>5044</v>
+      </c>
+      <c r="E98">
+        <v>3007</v>
+      </c>
+      <c r="F98">
+        <v>2190</v>
+      </c>
+      <c r="G98">
+        <v>8625</v>
+      </c>
+      <c r="H98">
+        <v>4272</v>
+      </c>
+      <c r="I98">
+        <v>4573</v>
+      </c>
+      <c r="J98">
+        <v>4477</v>
+      </c>
+      <c r="K98">
+        <v>4310</v>
+      </c>
+      <c r="L98">
+        <v>4043</v>
+      </c>
+      <c r="M98">
+        <v>4361</v>
+      </c>
+      <c r="N98">
+        <v>6</v>
+      </c>
+      <c r="O98">
+        <v>2</v>
+      </c>
+      <c r="P98">
+        <v>1</v>
+      </c>
+      <c r="Q98">
+        <v>-3</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>-2</v>
+      </c>
+      <c r="T98">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>857</v>
+      </c>
+      <c r="B99">
+        <v>2111</v>
+      </c>
+      <c r="C99">
+        <v>311</v>
+      </c>
+      <c r="D99">
+        <v>18326</v>
+      </c>
+      <c r="E99">
+        <v>19978</v>
+      </c>
+      <c r="G99">
+        <v>18747</v>
+      </c>
+      <c r="H99">
+        <v>17791</v>
+      </c>
+      <c r="I99">
+        <v>21580</v>
+      </c>
+      <c r="J99">
+        <v>18734</v>
+      </c>
+      <c r="L99">
+        <v>18708</v>
+      </c>
+      <c r="M99">
+        <v>18287</v>
+      </c>
+      <c r="N99">
+        <v>-3</v>
+      </c>
+      <c r="O99">
+        <v>14</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>-13</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>-1</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>859</v>
+      </c>
+      <c r="B100">
+        <v>2111</v>
+      </c>
+      <c r="C100">
+        <v>221</v>
+      </c>
+      <c r="D100">
+        <v>17854</v>
+      </c>
+      <c r="E100">
+        <v>17519</v>
+      </c>
+      <c r="F100">
+        <v>16856</v>
+      </c>
+      <c r="G100">
+        <v>17796</v>
+      </c>
+      <c r="H100">
+        <v>17366</v>
+      </c>
+      <c r="I100">
+        <v>18164</v>
+      </c>
+      <c r="J100">
+        <v>19193</v>
+      </c>
+      <c r="K100">
+        <v>15195</v>
+      </c>
+      <c r="L100">
+        <v>16585</v>
+      </c>
+      <c r="M100">
+        <v>17139</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100">
+        <v>2</v>
+      </c>
+      <c r="P100">
+        <v>4</v>
+      </c>
+      <c r="Q100">
+        <v>-6</v>
+      </c>
+      <c r="R100">
+        <v>-3</v>
+      </c>
+      <c r="S100">
+        <v>3</v>
+      </c>
+      <c r="T100">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>860</v>
+      </c>
+      <c r="B101">
+        <v>11111</v>
+      </c>
+      <c r="C101">
+        <v>32</v>
+      </c>
+      <c r="D101">
+        <v>19895</v>
+      </c>
+      <c r="E101">
+        <v>18258</v>
+      </c>
+      <c r="F101">
+        <v>18256</v>
+      </c>
+      <c r="G101">
+        <v>17494</v>
+      </c>
+      <c r="H101">
+        <v>17230</v>
+      </c>
+      <c r="I101">
+        <v>21647</v>
+      </c>
+      <c r="J101">
+        <v>15170</v>
+      </c>
+      <c r="K101">
+        <v>16380</v>
+      </c>
+      <c r="L101">
+        <v>21568</v>
+      </c>
+      <c r="M101">
+        <v>13954</v>
+      </c>
+      <c r="N101">
+        <v>-12</v>
+      </c>
+      <c r="O101">
+        <v>-2</v>
+      </c>
+      <c r="P101">
+        <v>3</v>
+      </c>
+      <c r="Q101">
+        <v>6</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="S101">
+        <v>4</v>
+      </c>
+      <c r="T101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>861</v>
+      </c>
+      <c r="B102">
+        <v>41</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+      <c r="D102">
+        <v>17062</v>
+      </c>
+      <c r="E102">
+        <v>18421</v>
+      </c>
+      <c r="G102">
+        <v>18253</v>
+      </c>
+      <c r="H102">
+        <v>18286</v>
+      </c>
+      <c r="I102">
+        <v>21265</v>
+      </c>
+      <c r="J102">
+        <v>16784</v>
+      </c>
+      <c r="K102">
+        <v>13872</v>
+      </c>
+      <c r="L102">
+        <v>13365</v>
+      </c>
+      <c r="M102">
+        <v>15789</v>
+      </c>
+      <c r="N102">
+        <v>4</v>
+      </c>
+      <c r="O102">
+        <v>-2</v>
+      </c>
+      <c r="P102">
+        <v>1</v>
+      </c>
+      <c r="Q102">
+        <v>-6</v>
+      </c>
+      <c r="R102">
+        <v>-10</v>
+      </c>
+      <c r="S102">
+        <v>5</v>
+      </c>
+      <c r="T102">
+        <v>-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datasets/xlsx/CSPreMatchStatistics.xlsx
+++ b/datasets/xlsx/CSPreMatchStatistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avery\OneDrive\Desktop\CS2 Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D66304-57CF-4C90-A521-89C09E95172D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002E71BD-A2BF-4F31-9B3D-91776114CC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="7965" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,11 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T102"/>
+  <dimension ref="A1:T106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U100" sqref="U100"/>
+      <selection pane="bottomLeft" activeCell="N106" sqref="N106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6317,6 +6317,248 @@
         <v>-2</v>
       </c>
     </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>862</v>
+      </c>
+      <c r="B103">
+        <v>311</v>
+      </c>
+      <c r="C103">
+        <v>311</v>
+      </c>
+      <c r="D103">
+        <v>18997</v>
+      </c>
+      <c r="E103">
+        <v>20534</v>
+      </c>
+      <c r="G103">
+        <v>17356</v>
+      </c>
+      <c r="H103">
+        <v>17238</v>
+      </c>
+      <c r="I103">
+        <v>17882</v>
+      </c>
+      <c r="J103">
+        <v>17772</v>
+      </c>
+      <c r="K103">
+        <v>18153</v>
+      </c>
+      <c r="L103">
+        <v>15984</v>
+      </c>
+      <c r="M103">
+        <v>17725</v>
+      </c>
+      <c r="N103">
+        <v>-8</v>
+      </c>
+      <c r="O103">
+        <v>10</v>
+      </c>
+      <c r="P103">
+        <v>3</v>
+      </c>
+      <c r="Q103">
+        <v>-7</v>
+      </c>
+      <c r="R103">
+        <v>-5</v>
+      </c>
+      <c r="S103">
+        <v>1</v>
+      </c>
+      <c r="T103">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>863</v>
+      </c>
+      <c r="B104">
+        <v>311</v>
+      </c>
+      <c r="C104">
+        <v>221</v>
+      </c>
+      <c r="D104">
+        <v>18026</v>
+      </c>
+      <c r="E104">
+        <v>20462</v>
+      </c>
+      <c r="F104">
+        <v>13275</v>
+      </c>
+      <c r="G104">
+        <v>17705</v>
+      </c>
+      <c r="H104">
+        <v>17511</v>
+      </c>
+      <c r="I104">
+        <v>18248</v>
+      </c>
+      <c r="J104">
+        <v>17669</v>
+      </c>
+      <c r="K104">
+        <v>17520</v>
+      </c>
+      <c r="L104">
+        <v>17230</v>
+      </c>
+      <c r="M104">
+        <v>17335</v>
+      </c>
+      <c r="N104">
+        <v>5</v>
+      </c>
+      <c r="O104">
+        <v>3</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>-13</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
+      </c>
+      <c r="S104">
+        <v>6</v>
+      </c>
+      <c r="T104">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>864</v>
+      </c>
+      <c r="B105">
+        <v>32</v>
+      </c>
+      <c r="C105">
+        <v>311</v>
+      </c>
+      <c r="D105">
+        <v>16474</v>
+      </c>
+      <c r="E105">
+        <v>15963</v>
+      </c>
+      <c r="F105">
+        <v>13632</v>
+      </c>
+      <c r="G105">
+        <v>17477</v>
+      </c>
+      <c r="H105">
+        <v>18064</v>
+      </c>
+      <c r="I105">
+        <v>17508</v>
+      </c>
+      <c r="J105">
+        <v>16898</v>
+      </c>
+      <c r="K105">
+        <v>12021</v>
+      </c>
+      <c r="L105">
+        <v>14101</v>
+      </c>
+      <c r="M105">
+        <v>19541</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>-1</v>
+      </c>
+      <c r="Q105">
+        <v>-8</v>
+      </c>
+      <c r="R105">
+        <v>7</v>
+      </c>
+      <c r="S105">
+        <v>4</v>
+      </c>
+      <c r="T105">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>865</v>
+      </c>
+      <c r="B106">
+        <v>311</v>
+      </c>
+      <c r="C106">
+        <v>221</v>
+      </c>
+      <c r="D106">
+        <v>13267</v>
+      </c>
+      <c r="E106">
+        <v>17098</v>
+      </c>
+      <c r="F106">
+        <v>17725</v>
+      </c>
+      <c r="G106">
+        <v>14999</v>
+      </c>
+      <c r="H106">
+        <v>14813</v>
+      </c>
+      <c r="I106">
+        <v>19395</v>
+      </c>
+      <c r="J106">
+        <v>10415</v>
+      </c>
+      <c r="K106">
+        <v>16483</v>
+      </c>
+      <c r="L106">
+        <v>14477</v>
+      </c>
+      <c r="N106">
+        <v>7</v>
+      </c>
+      <c r="O106">
+        <v>7</v>
+      </c>
+      <c r="P106">
+        <v>-4</v>
+      </c>
+      <c r="Q106">
+        <v>3</v>
+      </c>
+      <c r="R106">
+        <v>-1</v>
+      </c>
+      <c r="S106">
+        <v>-1</v>
+      </c>
+      <c r="T106">
+        <v>-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datasets/xlsx/CSPreMatchStatistics.xlsx
+++ b/datasets/xlsx/CSPreMatchStatistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avery\OneDrive\Desktop\CS2 Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002E71BD-A2BF-4F31-9B3D-91776114CC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FF13F2-EA33-4F0C-A9D2-7803B903AAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="7965" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,11 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T106"/>
+  <dimension ref="A1:T114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N106" sqref="N106"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U114" sqref="U114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6559,6 +6559,487 @@
         <v>-2</v>
       </c>
     </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>866</v>
+      </c>
+      <c r="B107">
+        <v>2111</v>
+      </c>
+      <c r="C107">
+        <v>221</v>
+      </c>
+      <c r="D107">
+        <v>18164</v>
+      </c>
+      <c r="E107">
+        <v>18082</v>
+      </c>
+      <c r="F107">
+        <v>19653</v>
+      </c>
+      <c r="H107">
+        <v>17735</v>
+      </c>
+      <c r="I107">
+        <v>18315</v>
+      </c>
+      <c r="J107">
+        <v>21268</v>
+      </c>
+      <c r="K107">
+        <v>13810</v>
+      </c>
+      <c r="L107">
+        <v>14328</v>
+      </c>
+      <c r="M107">
+        <v>19893</v>
+      </c>
+      <c r="N107">
+        <v>5</v>
+      </c>
+      <c r="O107">
+        <v>5</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
+        <v>-3</v>
+      </c>
+      <c r="R107">
+        <v>-3</v>
+      </c>
+      <c r="S107">
+        <v>-3</v>
+      </c>
+      <c r="T107">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>867</v>
+      </c>
+      <c r="B108">
+        <v>2111</v>
+      </c>
+      <c r="C108">
+        <v>5</v>
+      </c>
+      <c r="D108">
+        <v>16887</v>
+      </c>
+      <c r="E108">
+        <v>20188</v>
+      </c>
+      <c r="F108">
+        <v>18478</v>
+      </c>
+      <c r="G108">
+        <v>18316</v>
+      </c>
+      <c r="H108">
+        <v>17717</v>
+      </c>
+      <c r="I108">
+        <v>12205</v>
+      </c>
+      <c r="J108">
+        <v>11274</v>
+      </c>
+      <c r="L108">
+        <v>15942</v>
+      </c>
+      <c r="M108">
+        <v>22509</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108">
+        <v>6</v>
+      </c>
+      <c r="P108">
+        <v>4</v>
+      </c>
+      <c r="Q108">
+        <v>4</v>
+      </c>
+      <c r="R108">
+        <v>-5</v>
+      </c>
+      <c r="S108">
+        <v>-12</v>
+      </c>
+      <c r="T108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>868</v>
+      </c>
+      <c r="B109">
+        <v>5</v>
+      </c>
+      <c r="C109">
+        <v>2111</v>
+      </c>
+      <c r="D109">
+        <v>25254</v>
+      </c>
+      <c r="E109">
+        <v>24694</v>
+      </c>
+      <c r="F109">
+        <v>20798</v>
+      </c>
+      <c r="G109">
+        <v>17819</v>
+      </c>
+      <c r="H109">
+        <v>23525</v>
+      </c>
+      <c r="I109">
+        <v>22813</v>
+      </c>
+      <c r="K109">
+        <v>22349</v>
+      </c>
+      <c r="L109">
+        <v>20112</v>
+      </c>
+      <c r="M109">
+        <v>23701</v>
+      </c>
+      <c r="N109">
+        <v>-3</v>
+      </c>
+      <c r="O109">
+        <v>1</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>8</v>
+      </c>
+      <c r="R109">
+        <v>1</v>
+      </c>
+      <c r="S109">
+        <v>3</v>
+      </c>
+      <c r="T109">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>869</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110">
+        <v>41</v>
+      </c>
+      <c r="D110">
+        <v>25595</v>
+      </c>
+      <c r="E110">
+        <v>24999</v>
+      </c>
+      <c r="F110">
+        <v>23838</v>
+      </c>
+      <c r="G110">
+        <v>18126</v>
+      </c>
+      <c r="H110">
+        <v>21151</v>
+      </c>
+      <c r="I110">
+        <v>25102</v>
+      </c>
+      <c r="J110">
+        <v>24999</v>
+      </c>
+      <c r="K110">
+        <v>20875</v>
+      </c>
+      <c r="L110">
+        <v>22325</v>
+      </c>
+      <c r="M110">
+        <v>22424</v>
+      </c>
+      <c r="N110">
+        <v>-11</v>
+      </c>
+      <c r="O110">
+        <v>11</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>-3</v>
+      </c>
+      <c r="R110">
+        <v>6</v>
+      </c>
+      <c r="S110">
+        <v>6</v>
+      </c>
+      <c r="T110">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>870</v>
+      </c>
+      <c r="B111">
+        <v>311</v>
+      </c>
+      <c r="C111">
+        <v>221</v>
+      </c>
+      <c r="D111">
+        <v>18146</v>
+      </c>
+      <c r="E111">
+        <v>19999</v>
+      </c>
+      <c r="F111">
+        <v>18683</v>
+      </c>
+      <c r="G111">
+        <v>14107</v>
+      </c>
+      <c r="H111">
+        <v>17837</v>
+      </c>
+      <c r="I111">
+        <v>18175</v>
+      </c>
+      <c r="J111">
+        <v>17368</v>
+      </c>
+      <c r="K111">
+        <v>18116</v>
+      </c>
+      <c r="L111">
+        <v>17940</v>
+      </c>
+      <c r="M111">
+        <v>17551</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111">
+        <v>-2</v>
+      </c>
+      <c r="P111">
+        <v>4</v>
+      </c>
+      <c r="Q111">
+        <v>-2</v>
+      </c>
+      <c r="R111">
+        <v>3</v>
+      </c>
+      <c r="S111">
+        <v>5</v>
+      </c>
+      <c r="T111">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>871</v>
+      </c>
+      <c r="B112">
+        <v>41</v>
+      </c>
+      <c r="C112">
+        <v>41</v>
+      </c>
+      <c r="D112">
+        <v>21649</v>
+      </c>
+      <c r="E112">
+        <v>21017</v>
+      </c>
+      <c r="F112">
+        <v>23606</v>
+      </c>
+      <c r="G112">
+        <v>18196</v>
+      </c>
+      <c r="H112">
+        <v>21558</v>
+      </c>
+      <c r="I112">
+        <v>21628</v>
+      </c>
+      <c r="J112">
+        <v>19618</v>
+      </c>
+      <c r="K112">
+        <v>23036</v>
+      </c>
+      <c r="M112">
+        <v>20001</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112">
+        <v>-2</v>
+      </c>
+      <c r="P112">
+        <v>4</v>
+      </c>
+      <c r="Q112">
+        <v>-1</v>
+      </c>
+      <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>872</v>
+      </c>
+      <c r="B113">
+        <v>41</v>
+      </c>
+      <c r="C113">
+        <v>221</v>
+      </c>
+      <c r="D113">
+        <v>22779</v>
+      </c>
+      <c r="E113">
+        <v>21998</v>
+      </c>
+      <c r="F113">
+        <v>21340</v>
+      </c>
+      <c r="G113">
+        <v>24100</v>
+      </c>
+      <c r="H113">
+        <v>18542</v>
+      </c>
+      <c r="I113">
+        <v>23289</v>
+      </c>
+      <c r="J113">
+        <v>24777</v>
+      </c>
+      <c r="K113">
+        <v>25842</v>
+      </c>
+      <c r="L113">
+        <v>20000</v>
+      </c>
+      <c r="M113">
+        <v>22300</v>
+      </c>
+      <c r="N113">
+        <v>-6</v>
+      </c>
+      <c r="O113">
+        <v>4</v>
+      </c>
+      <c r="P113">
+        <v>2</v>
+      </c>
+      <c r="Q113">
+        <v>-11</v>
+      </c>
+      <c r="R113">
+        <v>1</v>
+      </c>
+      <c r="S113">
+        <v>4</v>
+      </c>
+      <c r="T113">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>873</v>
+      </c>
+      <c r="B114">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>2111</v>
+      </c>
+      <c r="D114">
+        <v>21696</v>
+      </c>
+      <c r="E114">
+        <v>18893</v>
+      </c>
+      <c r="F114">
+        <v>22372</v>
+      </c>
+      <c r="G114">
+        <v>17122</v>
+      </c>
+      <c r="H114">
+        <v>24628</v>
+      </c>
+      <c r="I114">
+        <v>22122</v>
+      </c>
+      <c r="J114">
+        <v>23365</v>
+      </c>
+      <c r="L114">
+        <v>21733</v>
+      </c>
+      <c r="M114">
+        <v>21457</v>
+      </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+      <c r="O114">
+        <v>7</v>
+      </c>
+      <c r="P114">
+        <v>4</v>
+      </c>
+      <c r="Q114">
+        <v>-6</v>
+      </c>
+      <c r="R114">
+        <v>-2</v>
+      </c>
+      <c r="S114">
+        <v>5</v>
+      </c>
+      <c r="T114">
+        <v>-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datasets/xlsx/CSPreMatchStatistics.xlsx
+++ b/datasets/xlsx/CSPreMatchStatistics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avery\OneDrive\Desktop\CS2 Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30FF13F2-EA33-4F0C-A9D2-7803B903AAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C002F6A4-203D-494C-8AF7-8C2B12F4392D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="7965" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,11 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T114"/>
+  <dimension ref="A1:T126"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U114" sqref="U114"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O132" sqref="O132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7040,6 +7040,714 @@
         <v>-3</v>
       </c>
     </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>874</v>
+      </c>
+      <c r="B115">
+        <v>5</v>
+      </c>
+      <c r="C115">
+        <v>41</v>
+      </c>
+      <c r="D115">
+        <v>20527</v>
+      </c>
+      <c r="F115">
+        <v>22580</v>
+      </c>
+      <c r="G115">
+        <v>14769</v>
+      </c>
+      <c r="H115">
+        <v>18586</v>
+      </c>
+      <c r="I115">
+        <v>18695</v>
+      </c>
+      <c r="J115">
+        <v>18330</v>
+      </c>
+      <c r="K115">
+        <v>16498</v>
+      </c>
+      <c r="L115">
+        <v>19044</v>
+      </c>
+      <c r="M115">
+        <v>17640</v>
+      </c>
+      <c r="N115">
+        <v>2</v>
+      </c>
+      <c r="O115">
+        <v>-4</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>-6</v>
+      </c>
+      <c r="R115">
+        <v>-4</v>
+      </c>
+      <c r="S115">
+        <v>2</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>875</v>
+      </c>
+      <c r="B116">
+        <v>32</v>
+      </c>
+      <c r="C116">
+        <v>5</v>
+      </c>
+      <c r="D116">
+        <v>14338</v>
+      </c>
+      <c r="E116">
+        <v>18252</v>
+      </c>
+      <c r="F116">
+        <v>20216</v>
+      </c>
+      <c r="G116">
+        <v>14232</v>
+      </c>
+      <c r="H116">
+        <v>18846</v>
+      </c>
+      <c r="I116">
+        <v>22025</v>
+      </c>
+      <c r="J116">
+        <v>10625</v>
+      </c>
+      <c r="K116">
+        <v>22730</v>
+      </c>
+      <c r="M116">
+        <v>15000</v>
+      </c>
+      <c r="N116">
+        <v>8</v>
+      </c>
+      <c r="O116">
+        <v>-4</v>
+      </c>
+      <c r="P116">
+        <v>1</v>
+      </c>
+      <c r="Q116">
+        <v>-2</v>
+      </c>
+      <c r="R116">
+        <v>-1</v>
+      </c>
+      <c r="S116">
+        <v>2</v>
+      </c>
+      <c r="T116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>876</v>
+      </c>
+      <c r="B117">
+        <v>41</v>
+      </c>
+      <c r="C117">
+        <v>11111</v>
+      </c>
+      <c r="D117">
+        <v>18061</v>
+      </c>
+      <c r="E117">
+        <v>14627</v>
+      </c>
+      <c r="F117">
+        <v>18522</v>
+      </c>
+      <c r="G117">
+        <v>20482</v>
+      </c>
+      <c r="H117">
+        <v>17114</v>
+      </c>
+      <c r="I117">
+        <v>18426</v>
+      </c>
+      <c r="J117">
+        <v>18363</v>
+      </c>
+      <c r="K117">
+        <v>18112</v>
+      </c>
+      <c r="L117">
+        <v>18067</v>
+      </c>
+      <c r="M117">
+        <v>18049</v>
+      </c>
+      <c r="N117">
+        <v>6</v>
+      </c>
+      <c r="O117">
+        <v>-5</v>
+      </c>
+      <c r="P117">
+        <v>3</v>
+      </c>
+      <c r="Q117">
+        <v>-6</v>
+      </c>
+      <c r="R117">
+        <v>0</v>
+      </c>
+      <c r="S117">
+        <v>5</v>
+      </c>
+      <c r="T117">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>877</v>
+      </c>
+      <c r="B118">
+        <v>2111</v>
+      </c>
+      <c r="C118">
+        <v>311</v>
+      </c>
+      <c r="D118">
+        <v>18559</v>
+      </c>
+      <c r="E118">
+        <v>20000</v>
+      </c>
+      <c r="F118">
+        <v>15756</v>
+      </c>
+      <c r="G118">
+        <v>18154</v>
+      </c>
+      <c r="H118">
+        <v>17705</v>
+      </c>
+      <c r="I118">
+        <v>18245</v>
+      </c>
+      <c r="J118">
+        <v>18202</v>
+      </c>
+      <c r="K118">
+        <v>15421</v>
+      </c>
+      <c r="L118">
+        <v>13939</v>
+      </c>
+      <c r="M118">
+        <v>20900</v>
+      </c>
+      <c r="N118">
+        <v>-6</v>
+      </c>
+      <c r="O118">
+        <v>5</v>
+      </c>
+      <c r="P118">
+        <v>-8</v>
+      </c>
+      <c r="Q118">
+        <v>-1</v>
+      </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <v>3</v>
+      </c>
+      <c r="T118">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>878</v>
+      </c>
+      <c r="B119">
+        <v>2111</v>
+      </c>
+      <c r="C119">
+        <v>311</v>
+      </c>
+      <c r="D119">
+        <v>18474</v>
+      </c>
+      <c r="E119">
+        <v>15839</v>
+      </c>
+      <c r="F119">
+        <v>19767</v>
+      </c>
+      <c r="G119">
+        <v>17749</v>
+      </c>
+      <c r="H119">
+        <v>16970</v>
+      </c>
+      <c r="I119">
+        <v>18596</v>
+      </c>
+      <c r="J119">
+        <v>18292</v>
+      </c>
+      <c r="K119">
+        <v>20165</v>
+      </c>
+      <c r="L119">
+        <v>14509</v>
+      </c>
+      <c r="N119">
+        <v>-10</v>
+      </c>
+      <c r="O119">
+        <v>3</v>
+      </c>
+      <c r="P119">
+        <v>-1</v>
+      </c>
+      <c r="Q119">
+        <v>5</v>
+      </c>
+      <c r="R119">
+        <v>5</v>
+      </c>
+      <c r="S119">
+        <v>1</v>
+      </c>
+      <c r="T119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>880</v>
+      </c>
+      <c r="B120">
+        <v>11111</v>
+      </c>
+      <c r="C120">
+        <v>221</v>
+      </c>
+      <c r="D120">
+        <v>19026</v>
+      </c>
+      <c r="E120">
+        <v>18306</v>
+      </c>
+      <c r="F120">
+        <v>17717</v>
+      </c>
+      <c r="G120">
+        <v>15909</v>
+      </c>
+      <c r="H120">
+        <v>15857</v>
+      </c>
+      <c r="I120">
+        <v>15488</v>
+      </c>
+      <c r="J120">
+        <v>20000</v>
+      </c>
+      <c r="K120">
+        <v>14943</v>
+      </c>
+      <c r="L120">
+        <v>18780</v>
+      </c>
+      <c r="M120">
+        <v>15610</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120">
+        <v>8</v>
+      </c>
+      <c r="P120">
+        <v>-1</v>
+      </c>
+      <c r="Q120">
+        <v>-4</v>
+      </c>
+      <c r="R120">
+        <v>-4</v>
+      </c>
+      <c r="S120">
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>881</v>
+      </c>
+      <c r="B121">
+        <v>2111</v>
+      </c>
+      <c r="C121">
+        <v>2111</v>
+      </c>
+      <c r="D121">
+        <v>17951</v>
+      </c>
+      <c r="F121">
+        <v>16925</v>
+      </c>
+      <c r="G121">
+        <v>13138</v>
+      </c>
+      <c r="H121">
+        <v>17518</v>
+      </c>
+      <c r="I121">
+        <v>17713</v>
+      </c>
+      <c r="J121">
+        <v>17184</v>
+      </c>
+      <c r="K121">
+        <v>16809</v>
+      </c>
+      <c r="L121">
+        <v>18369</v>
+      </c>
+      <c r="M121">
+        <v>13942</v>
+      </c>
+      <c r="N121">
+        <v>1</v>
+      </c>
+      <c r="O121">
+        <v>-5</v>
+      </c>
+      <c r="P121">
+        <v>-2</v>
+      </c>
+      <c r="Q121">
+        <v>-6</v>
+      </c>
+      <c r="R121">
+        <v>-2</v>
+      </c>
+      <c r="S121">
+        <v>4</v>
+      </c>
+      <c r="T121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>882</v>
+      </c>
+      <c r="B122">
+        <v>311</v>
+      </c>
+      <c r="C122">
+        <v>311</v>
+      </c>
+      <c r="D122">
+        <v>21231</v>
+      </c>
+      <c r="F122">
+        <v>21144</v>
+      </c>
+      <c r="G122">
+        <v>17668</v>
+      </c>
+      <c r="H122">
+        <v>17594</v>
+      </c>
+      <c r="I122">
+        <v>18277</v>
+      </c>
+      <c r="J122">
+        <v>15842</v>
+      </c>
+      <c r="K122">
+        <v>14340</v>
+      </c>
+      <c r="L122">
+        <v>20590</v>
+      </c>
+      <c r="M122">
+        <v>16594</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122">
+        <v>5</v>
+      </c>
+      <c r="P122">
+        <v>1</v>
+      </c>
+      <c r="Q122">
+        <v>1</v>
+      </c>
+      <c r="R122">
+        <v>-4</v>
+      </c>
+      <c r="S122">
+        <v>-1</v>
+      </c>
+      <c r="T122">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>883</v>
+      </c>
+      <c r="B123">
+        <v>221</v>
+      </c>
+      <c r="C123">
+        <v>311</v>
+      </c>
+      <c r="D123">
+        <v>17183</v>
+      </c>
+      <c r="E123">
+        <v>16464</v>
+      </c>
+      <c r="F123">
+        <v>16677</v>
+      </c>
+      <c r="G123">
+        <v>16044</v>
+      </c>
+      <c r="H123">
+        <v>16197</v>
+      </c>
+      <c r="I123">
+        <v>18783</v>
+      </c>
+      <c r="J123">
+        <v>13952</v>
+      </c>
+      <c r="K123">
+        <v>16526</v>
+      </c>
+      <c r="L123">
+        <v>15815</v>
+      </c>
+      <c r="M123">
+        <v>15521</v>
+      </c>
+      <c r="N123">
+        <v>-2</v>
+      </c>
+      <c r="O123">
+        <v>-15</v>
+      </c>
+      <c r="P123">
+        <v>1</v>
+      </c>
+      <c r="Q123">
+        <v>6</v>
+      </c>
+      <c r="R123">
+        <v>5</v>
+      </c>
+      <c r="S123">
+        <v>1</v>
+      </c>
+      <c r="T123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>884</v>
+      </c>
+      <c r="B124">
+        <v>221</v>
+      </c>
+      <c r="C124">
+        <v>5</v>
+      </c>
+      <c r="D124">
+        <v>17511</v>
+      </c>
+      <c r="F124">
+        <v>16085</v>
+      </c>
+      <c r="I124">
+        <v>17528</v>
+      </c>
+      <c r="J124">
+        <v>15323</v>
+      </c>
+      <c r="K124">
+        <v>17615</v>
+      </c>
+      <c r="N124">
+        <v>1</v>
+      </c>
+      <c r="O124">
+        <v>2</v>
+      </c>
+      <c r="P124">
+        <v>-4</v>
+      </c>
+      <c r="Q124">
+        <v>-5</v>
+      </c>
+      <c r="R124">
+        <v>-1</v>
+      </c>
+      <c r="S124">
+        <v>-2</v>
+      </c>
+      <c r="T124">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>885</v>
+      </c>
+      <c r="B125">
+        <v>221</v>
+      </c>
+      <c r="C125">
+        <v>2111</v>
+      </c>
+      <c r="D125">
+        <v>16076</v>
+      </c>
+      <c r="E125">
+        <v>17131</v>
+      </c>
+      <c r="G125">
+        <v>18786</v>
+      </c>
+      <c r="H125">
+        <v>10577</v>
+      </c>
+      <c r="I125">
+        <v>17772</v>
+      </c>
+      <c r="J125">
+        <v>14465</v>
+      </c>
+      <c r="K125">
+        <v>15662</v>
+      </c>
+      <c r="L125">
+        <v>15373</v>
+      </c>
+      <c r="M125">
+        <v>14999</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125">
+        <v>-2</v>
+      </c>
+      <c r="P125">
+        <v>-6</v>
+      </c>
+      <c r="Q125">
+        <v>3</v>
+      </c>
+      <c r="R125">
+        <v>2</v>
+      </c>
+      <c r="S125">
+        <v>-4</v>
+      </c>
+      <c r="T125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>886</v>
+      </c>
+      <c r="B126">
+        <v>2111</v>
+      </c>
+      <c r="C126">
+        <v>311</v>
+      </c>
+      <c r="D126">
+        <v>17719</v>
+      </c>
+      <c r="E126">
+        <v>17840</v>
+      </c>
+      <c r="F126">
+        <v>17113</v>
+      </c>
+      <c r="G126">
+        <v>17042</v>
+      </c>
+      <c r="H126">
+        <v>16759</v>
+      </c>
+      <c r="I126">
+        <v>17764</v>
+      </c>
+      <c r="J126">
+        <v>17109</v>
+      </c>
+      <c r="K126">
+        <v>16757</v>
+      </c>
+      <c r="M126">
+        <v>12117</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126">
+        <v>2</v>
+      </c>
+      <c r="P126">
+        <v>2</v>
+      </c>
+      <c r="Q126">
+        <v>2</v>
+      </c>
+      <c r="R126">
+        <v>2</v>
+      </c>
+      <c r="S126">
+        <v>-1</v>
+      </c>
+      <c r="T126">
+        <v>-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datasets/xlsx/CSPreMatchStatistics.xlsx
+++ b/datasets/xlsx/CSPreMatchStatistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avery\OneDrive\Desktop\CS2 Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C002F6A4-203D-494C-8AF7-8C2B12F4392D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AC8012-7F40-4919-9DC7-EA4ABDE26C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="7965" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -462,11 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T126"/>
+  <dimension ref="A1:T136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O132" sqref="O132"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P136" sqref="P136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7748,6 +7748,596 @@
         <v>-3</v>
       </c>
     </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>887</v>
+      </c>
+      <c r="B127">
+        <v>311</v>
+      </c>
+      <c r="C127">
+        <v>5</v>
+      </c>
+      <c r="D127">
+        <v>17514</v>
+      </c>
+      <c r="E127">
+        <v>17839</v>
+      </c>
+      <c r="F127">
+        <v>16576</v>
+      </c>
+      <c r="H127">
+        <v>17125</v>
+      </c>
+      <c r="I127">
+        <v>15863</v>
+      </c>
+      <c r="K127">
+        <v>20399</v>
+      </c>
+      <c r="L127">
+        <v>22399</v>
+      </c>
+      <c r="M127">
+        <v>3475</v>
+      </c>
+      <c r="N127">
+        <v>4</v>
+      </c>
+      <c r="O127">
+        <v>1</v>
+      </c>
+      <c r="P127">
+        <v>-2</v>
+      </c>
+      <c r="Q127">
+        <v>-1</v>
+      </c>
+      <c r="R127">
+        <v>4</v>
+      </c>
+      <c r="S127">
+        <v>0</v>
+      </c>
+      <c r="T127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>888</v>
+      </c>
+      <c r="B128">
+        <v>2111</v>
+      </c>
+      <c r="C128">
+        <v>32</v>
+      </c>
+      <c r="D128">
+        <v>18981</v>
+      </c>
+      <c r="E128">
+        <v>17290</v>
+      </c>
+      <c r="F128">
+        <v>17270</v>
+      </c>
+      <c r="G128">
+        <v>16559</v>
+      </c>
+      <c r="H128">
+        <v>16605</v>
+      </c>
+      <c r="I128">
+        <v>18569</v>
+      </c>
+      <c r="J128">
+        <v>15594</v>
+      </c>
+      <c r="K128">
+        <v>13028</v>
+      </c>
+      <c r="M128">
+        <v>16227</v>
+      </c>
+      <c r="N128">
+        <v>2</v>
+      </c>
+      <c r="O128">
+        <v>5</v>
+      </c>
+      <c r="P128">
+        <v>-2</v>
+      </c>
+      <c r="Q128">
+        <v>1</v>
+      </c>
+      <c r="R128">
+        <v>-1</v>
+      </c>
+      <c r="S128">
+        <v>2</v>
+      </c>
+      <c r="T128">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>889</v>
+      </c>
+      <c r="B129">
+        <v>2111</v>
+      </c>
+      <c r="C129">
+        <v>2111</v>
+      </c>
+      <c r="D129">
+        <v>16866</v>
+      </c>
+      <c r="E129">
+        <v>16556</v>
+      </c>
+      <c r="F129">
+        <v>16785</v>
+      </c>
+      <c r="G129">
+        <v>15488</v>
+      </c>
+      <c r="H129">
+        <v>15752</v>
+      </c>
+      <c r="I129">
+        <v>16891</v>
+      </c>
+      <c r="J129">
+        <v>16232</v>
+      </c>
+      <c r="K129">
+        <v>15165</v>
+      </c>
+      <c r="M129">
+        <v>15646</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>-2</v>
+      </c>
+      <c r="P129">
+        <v>1</v>
+      </c>
+      <c r="Q129">
+        <v>-4</v>
+      </c>
+      <c r="R129">
+        <v>0</v>
+      </c>
+      <c r="S129">
+        <v>2</v>
+      </c>
+      <c r="T129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>890</v>
+      </c>
+      <c r="B130">
+        <v>2111</v>
+      </c>
+      <c r="C130">
+        <v>32</v>
+      </c>
+      <c r="D130">
+        <v>18528</v>
+      </c>
+      <c r="E130">
+        <v>17161</v>
+      </c>
+      <c r="F130">
+        <v>17101</v>
+      </c>
+      <c r="G130">
+        <v>16939</v>
+      </c>
+      <c r="H130">
+        <v>16499</v>
+      </c>
+      <c r="I130">
+        <v>19444</v>
+      </c>
+      <c r="J130">
+        <v>15136</v>
+      </c>
+      <c r="K130">
+        <v>21108</v>
+      </c>
+      <c r="L130">
+        <v>12868</v>
+      </c>
+      <c r="M130">
+        <v>16422</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130">
+        <v>-2</v>
+      </c>
+      <c r="P130">
+        <v>-1</v>
+      </c>
+      <c r="Q130">
+        <v>-8</v>
+      </c>
+      <c r="R130">
+        <v>11</v>
+      </c>
+      <c r="S130">
+        <v>3</v>
+      </c>
+      <c r="T130">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>891</v>
+      </c>
+      <c r="B131">
+        <v>2111</v>
+      </c>
+      <c r="C131">
+        <v>221</v>
+      </c>
+      <c r="D131">
+        <v>16497</v>
+      </c>
+      <c r="E131">
+        <v>16104</v>
+      </c>
+      <c r="F131">
+        <v>16120</v>
+      </c>
+      <c r="G131">
+        <v>15538</v>
+      </c>
+      <c r="H131">
+        <v>15305</v>
+      </c>
+      <c r="J131">
+        <v>18709</v>
+      </c>
+      <c r="K131">
+        <v>15525</v>
+      </c>
+      <c r="L131">
+        <v>15676</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>4</v>
+      </c>
+      <c r="P131">
+        <v>1</v>
+      </c>
+      <c r="Q131">
+        <v>2</v>
+      </c>
+      <c r="R131">
+        <v>1</v>
+      </c>
+      <c r="S131">
+        <v>1</v>
+      </c>
+      <c r="T131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>892</v>
+      </c>
+      <c r="B132">
+        <v>2111</v>
+      </c>
+      <c r="C132">
+        <v>5</v>
+      </c>
+      <c r="D132">
+        <v>16456</v>
+      </c>
+      <c r="E132">
+        <v>15517</v>
+      </c>
+      <c r="F132">
+        <v>17018</v>
+      </c>
+      <c r="G132">
+        <v>16104</v>
+      </c>
+      <c r="H132">
+        <v>15123</v>
+      </c>
+      <c r="I132">
+        <v>20815</v>
+      </c>
+      <c r="J132">
+        <v>10000</v>
+      </c>
+      <c r="K132">
+        <v>16530</v>
+      </c>
+      <c r="L132">
+        <v>16903</v>
+      </c>
+      <c r="M132">
+        <v>10891</v>
+      </c>
+      <c r="N132">
+        <v>-8</v>
+      </c>
+      <c r="O132">
+        <v>6</v>
+      </c>
+      <c r="P132">
+        <v>2</v>
+      </c>
+      <c r="Q132">
+        <v>-10</v>
+      </c>
+      <c r="R132">
+        <v>6</v>
+      </c>
+      <c r="S132">
+        <v>1</v>
+      </c>
+      <c r="T132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>893</v>
+      </c>
+      <c r="B133">
+        <v>2111</v>
+      </c>
+      <c r="C133">
+        <v>5</v>
+      </c>
+      <c r="D133">
+        <v>16989</v>
+      </c>
+      <c r="E133">
+        <v>16662</v>
+      </c>
+      <c r="F133">
+        <v>16769</v>
+      </c>
+      <c r="G133">
+        <v>16400</v>
+      </c>
+      <c r="H133">
+        <v>16400</v>
+      </c>
+      <c r="I133">
+        <v>17989</v>
+      </c>
+      <c r="J133">
+        <v>19879</v>
+      </c>
+      <c r="K133">
+        <v>15044</v>
+      </c>
+      <c r="L133">
+        <v>16507</v>
+      </c>
+      <c r="M133">
+        <v>13873</v>
+      </c>
+      <c r="N133">
+        <v>-5</v>
+      </c>
+      <c r="O133">
+        <v>17</v>
+      </c>
+      <c r="P133">
+        <v>1</v>
+      </c>
+      <c r="Q133">
+        <v>-3</v>
+      </c>
+      <c r="R133">
+        <v>4</v>
+      </c>
+      <c r="S133">
+        <v>-7</v>
+      </c>
+      <c r="T133">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>894</v>
+      </c>
+      <c r="B134">
+        <v>5</v>
+      </c>
+      <c r="C134">
+        <v>2111</v>
+      </c>
+      <c r="D134">
+        <v>23959</v>
+      </c>
+      <c r="E134">
+        <v>14999</v>
+      </c>
+      <c r="F134">
+        <v>22695</v>
+      </c>
+      <c r="G134">
+        <v>16750</v>
+      </c>
+      <c r="H134">
+        <v>23331</v>
+      </c>
+      <c r="I134">
+        <v>22263</v>
+      </c>
+      <c r="K134">
+        <v>21617</v>
+      </c>
+      <c r="L134">
+        <v>23149</v>
+      </c>
+      <c r="N134">
+        <v>3</v>
+      </c>
+      <c r="O134">
+        <v>7</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+      <c r="Q134">
+        <v>-1</v>
+      </c>
+      <c r="R134">
+        <v>0</v>
+      </c>
+      <c r="S134">
+        <v>-4</v>
+      </c>
+      <c r="T134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>895</v>
+      </c>
+      <c r="B135">
+        <v>5</v>
+      </c>
+      <c r="C135">
+        <v>221</v>
+      </c>
+      <c r="D135">
+        <v>23836</v>
+      </c>
+      <c r="E135">
+        <v>22595</v>
+      </c>
+      <c r="F135">
+        <v>16454</v>
+      </c>
+      <c r="G135">
+        <v>22994</v>
+      </c>
+      <c r="I135">
+        <v>21505</v>
+      </c>
+      <c r="J135">
+        <v>23400</v>
+      </c>
+      <c r="K135">
+        <v>19999</v>
+      </c>
+      <c r="L135">
+        <v>24783</v>
+      </c>
+      <c r="M135">
+        <v>22248</v>
+      </c>
+      <c r="N135">
+        <v>-3</v>
+      </c>
+      <c r="O135">
+        <v>3</v>
+      </c>
+      <c r="P135">
+        <v>2</v>
+      </c>
+      <c r="Q135">
+        <v>-5</v>
+      </c>
+      <c r="R135">
+        <v>-4</v>
+      </c>
+      <c r="S135">
+        <v>-3</v>
+      </c>
+      <c r="T135">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>896</v>
+      </c>
+      <c r="B136">
+        <v>41</v>
+      </c>
+      <c r="C136">
+        <v>11111</v>
+      </c>
+      <c r="D136">
+        <v>22471</v>
+      </c>
+      <c r="E136">
+        <v>23520</v>
+      </c>
+      <c r="G136">
+        <v>16147</v>
+      </c>
+      <c r="H136">
+        <v>19882</v>
+      </c>
+      <c r="I136">
+        <v>21183</v>
+      </c>
+      <c r="J136">
+        <v>20960</v>
+      </c>
+      <c r="K136">
+        <v>19452</v>
+      </c>
+      <c r="L136">
+        <v>20005</v>
+      </c>
+      <c r="M136">
+        <v>19999</v>
+      </c>
+      <c r="N136">
+        <v>-4</v>
+      </c>
+      <c r="O136">
+        <v>1</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="Q136">
+        <v>-3</v>
+      </c>
+      <c r="R136">
+        <v>-2</v>
+      </c>
+      <c r="S136">
+        <v>-4</v>
+      </c>
+      <c r="T136">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
